--- a/doc/mct-t4-req.xlsx
+++ b/doc/mct-t4-req.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="22770" windowHeight="7995" tabRatio="453"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>一般需求</t>
   </si>
   <si>
+    <t>V1.0</t>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
     <t>多语言，跨平台，安装包</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>设备一键连接</t>
   </si>
   <si>
@@ -34,6 +43,18 @@
   </si>
   <si>
     <t>功能需求</t>
+  </si>
+  <si>
+    <t>登录模式</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>操作员</t>
+  </si>
+  <si>
+    <t>更改权限受限</t>
   </si>
   <si>
     <t>配置</t>
@@ -225,18 +246,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -247,6 +274,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -256,14 +327,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,8 +357,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,89 +409,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -404,13 +431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,163 +455,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,35 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -709,9 +707,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,6 +739,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,141 +777,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,339 +1274,449 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G62"/>
+  <dimension ref="B1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="7" width="73.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="73.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:8">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="3:3">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="3:7">
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="18.95" customHeight="1" spans="3:3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="18.95" customHeight="1" spans="3:7">
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="18.95" customHeight="1" spans="3:3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="18.95" customHeight="1" spans="3:7">
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="18.95" customHeight="1" spans="3:3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="18.95" customHeight="1" spans="3:7">
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="18.95" customHeight="1"/>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="3:7">
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="4:7">
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="4:7">
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="4:7">
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
+        <v>14</v>
+      </c>
+      <c r="E12"/>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="4:7">
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="4:9">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="4:7">
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
+        <v>18</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7">
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="3:7">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="4:7">
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="4:9">
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="3:9">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="4:7">
+      <c r="D23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
+      <c r="G23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="5:7">
       <c r="E28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="6:7">
       <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="5:6">
       <c r="E31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9">
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
+        <v>36</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="5:7">
       <c r="E34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5">
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="F34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="D38" t="s">
+      <c r="G34" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="6:7">
+      <c r="F35" t="s">
         <v>40</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="4:7">
+    <row r="37" spans="5:5">
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="5:7">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="4:7">
+    <row r="40" spans="3:9">
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="4:9">
       <c r="D41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7">
+        <v>47</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9">
       <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" spans="4:7">
+        <v>49</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="4:7">
       <c r="D43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" spans="4:7">
+        <v>51</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9">
       <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" spans="4:4">
+    <row r="45" spans="4:9">
       <c r="D45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" ht="36" customHeight="1" spans="4:7">
+        <v>53</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="4:9">
       <c r="D46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" ht="15.95" customHeight="1" spans="3:3">
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
+        <v>4</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="4:9">
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="4:4">
       <c r="D48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="36" customHeight="1" spans="4:9">
       <c r="D49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
+        <v>60</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" ht="15.95" customHeight="1" spans="3:3">
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="4:7">
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="4:7">
       <c r="D52" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7">
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="C61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="7:7">
-      <c r="G62" s="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="9:9">
+      <c r="I65" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mct-t4-req.xlsx
+++ b/doc/mct-t4-req.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22770" windowHeight="7995" tabRatio="453"/>
+    <workbookView windowWidth="24345" windowHeight="12465" tabRatio="453"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>一般需求</t>
   </si>
@@ -248,10 +248,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,84 +266,113 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,7 +388,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,36 +416,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -425,187 +432,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,32 +667,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,11 +704,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,20 +750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,10 +772,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,137 +784,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +922,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="B1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1285,7 +1295,7 @@
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="24.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="35.75" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="73.625" style="1" customWidth="1"/>
@@ -1376,7 +1386,6 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12"/>
       <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1533,12 +1542,12 @@
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1640,7 +1649,7 @@
       <c r="D49" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1680,9 +1689,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" ht="14.25" spans="4:7">
       <c r="D58" t="s">
         <v>68</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="3:3">
@@ -1690,18 +1702,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" ht="14.25" spans="4:7">
       <c r="D61" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="4:4">
+      <c r="G61" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" spans="4:7">
       <c r="D62" t="s">
         <v>71</v>
       </c>
+      <c r="G62" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="63" spans="9:9">
-      <c r="I63" s="4"/>
+      <c r="I63" s="5"/>
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="1" t="s">
@@ -1716,7 +1734,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="9:9">
-      <c r="I65" s="5"/>
+      <c r="I65" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mct-t4-req.xlsx
+++ b/doc/mct-t4-req.xlsx
@@ -15,13 +15,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>wangzhiyan</author>
+  </authors>
+  <commentList>
+    <comment ref="G34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangzhiyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+腕关节，爪子角度固件无有效数值返回</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wangzhiyan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+运动表脱机IO固件还不支持</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>一般需求</t>
   </si>
   <si>
-    <t>V1.0</t>
+    <t>V0.0.0.1</t>
   </si>
   <si>
     <t>V1.1</t>
@@ -63,6 +117,9 @@
     <t>臂长</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>零位</t>
   </si>
   <si>
@@ -171,7 +228,7 @@
     <t>相对角度回零后再张开</t>
   </si>
   <si>
-    <t>PA/RA</t>
+    <t>PA/PRA/PRN</t>
   </si>
   <si>
     <t>暂定后，可以在暂停处继续运动</t>
@@ -203,6 +260,9 @@
   <si>
     <t>主动接收
 *被动设置</t>
+  </si>
+  <si>
+    <t>运动表一次触发多个点</t>
   </si>
   <si>
     <t>错误管理</t>
@@ -246,12 +306,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +328,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,28 +400,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,79 +461,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,18 +477,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -432,187 +509,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,26 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -711,6 +768,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -728,9 +794,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,21 +841,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,10 +849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,34 +861,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,101 +897,101 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -925,6 +1002,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I65"/>
+  <dimension ref="B1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1386,13 +1466,13 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>4</v>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="4:7">
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -1400,37 +1480,40 @@
     </row>
     <row r="14" ht="14.25" spans="4:9">
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="4:7">
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" ht="14.25" spans="4:7">
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="3:7">
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>4</v>
@@ -1438,40 +1521,40 @@
     </row>
     <row r="19" ht="14.25" spans="4:7">
       <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="4:9">
       <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="3:9">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="4:7">
       <c r="D23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
@@ -1479,20 +1562,20 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="5:7">
       <c r="E28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1500,34 +1583,40 @@
     </row>
     <row r="29" ht="14.25" spans="6:7">
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6">
+        <v>34</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="5:7">
       <c r="E31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="6:9">
+        <v>36</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="6:9">
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="5:7">
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -1535,211 +1624,248 @@
     </row>
     <row r="35" ht="14.25" spans="6:7">
       <c r="F35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="3" t="s">
+    <row r="36" ht="14.25" spans="5:7">
+      <c r="E36" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="5:7">
+      <c r="E37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="5:7">
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" ht="14.25" spans="4:7">
       <c r="D39" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="3:9">
       <c r="C40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="4:9">
       <c r="D41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="4:9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="4:9">
       <c r="D42" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="4:7">
       <c r="D43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="4:9">
+    <row r="44" ht="14.25" spans="4:9">
       <c r="D44" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="4:9">
       <c r="D45" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="4:9">
       <c r="D46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="4:9">
       <c r="D47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1" spans="4:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="4:7">
       <c r="D48" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49" ht="36" customHeight="1" spans="4:9">
       <c r="D49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" ht="15.95" customHeight="1" spans="3:3">
-      <c r="C50" t="s">
+      <c r="G49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" ht="14.25" spans="4:7">
-      <c r="D51" t="s">
+    <row r="50" ht="36" customHeight="1" spans="4:9">
+      <c r="D50" t="s">
         <v>63</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>4</v>
+      <c r="G50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" ht="15.95" customHeight="1" spans="3:3">
+      <c r="C51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="4:7">
       <c r="D52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" t="s">
+      <c r="G52" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="4:7">
+      <c r="D53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="57" spans="3:3">
-      <c r="C57" t="s">
+      <c r="G53" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" ht="14.25" spans="4:7">
-      <c r="D58" t="s">
+    <row r="56" ht="14.25" spans="4:7">
+      <c r="D56" t="s">
         <v>68</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" t="s">
+      <c r="G56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" ht="14.25" spans="4:7">
-      <c r="D61" t="s">
+    <row r="59" ht="14.25" spans="4:7">
+      <c r="D59" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>4</v>
+      <c r="G59" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="62" ht="14.25" spans="4:7">
       <c r="D62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="G62" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="4:7">
+      <c r="D63" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="6"/>
+      <c r="G63" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
